--- a/Threagile_secure_testrun/tags.xlsx
+++ b/Threagile_secure_testrun/tags.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Insecure IT Testmodell" sheetId="2" r:id="rId4"/>
+    <sheet name="Secure IT Testmodell" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -465,9 +465,15 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
@@ -476,7 +482,7 @@
     <oddFooter>&amp;C&amp;F</oddFooter>
     <evenHeader>&amp;L&amp;P</evenHeader>
     <evenFooter>&amp;L&amp;D&amp;R&amp;T</evenFooter>
-    <firstHeader>&amp;Tag Matrix &amp;"-,Insecure IT Testmodell"Bold&amp;"-,Regular"Summary+000A&amp;D</firstHeader>
+    <firstHeader>&amp;Tag Matrix &amp;"-,Secure IT Testmodell"Bold&amp;"-,Regular"Summary+000A&amp;D</firstHeader>
   </headerFooter>
 </worksheet>
 </file>
--- a/Threagile_secure_testrun/tags.xlsx
+++ b/Threagile_secure_testrun/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Element</t>
   </si>
@@ -31,16 +31,28 @@
     <t>client</t>
   </si>
   <si>
+    <t>to-firewall1</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>firewall1</t>
+  </si>
+  <si>
     <t>to-webapp</t>
   </si>
   <si>
-    <t>database</t>
+    <t>firewall2</t>
+  </si>
+  <si>
+    <t>to-app</t>
   </si>
   <si>
     <t>webapp</t>
   </si>
   <si>
-    <t>to-app</t>
+    <t>to-firewall2</t>
   </si>
   <si>
     <t>user-data</t>
@@ -459,13 +471,11 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
     </row>
@@ -474,6 +484,32 @@
         <v>11</v>
       </c>
       <c r="B11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
